--- a/Complete-spreadsheets/EC/F4-list-EC.xlsx
+++ b/Complete-spreadsheets/EC/F4-list-EC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\EC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5544C3E-FB3C-4DD4-AE4A-1C3DB48F7E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B116D73-1E92-478A-B15C-222F42FA31A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,23 +496,23 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>16.744632358103772</v>
-      </c>
-      <c r="C2" s="3">
-        <v>19.910798133155549</v>
-      </c>
-      <c r="D2" s="3">
-        <v>15.69046328879681</v>
-      </c>
-      <c r="E2" s="3">
-        <v>4.0957034949357389</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.6626265009471111</v>
+      <c r="B2" s="4">
+        <v>29.368634652531568</v>
+      </c>
+      <c r="C2" s="4">
+        <v>7.6210876123450397</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5.0313663917334779</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4.3602907865147529</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.2616371901186501</v>
       </c>
       <c r="G2">
-        <v>58.104223775938983</v>
+        <v>48.643016633243477</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -521,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>26</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -534,23 +534,23 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
-        <v>18.50064565181119</v>
-      </c>
-      <c r="C3" s="3">
-        <v>6.5911690359939321</v>
-      </c>
-      <c r="D3" s="3">
-        <v>14.41053822501169</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5.2431700541467414</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2.093654316110269</v>
+      <c r="B3" s="4">
+        <v>55.007497905314658</v>
+      </c>
+      <c r="C3" s="4">
+        <v>11.450093186456851</v>
+      </c>
+      <c r="D3" s="4">
+        <v>15.70373260426528</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3.8079602020675778</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.7845117408982301</v>
       </c>
       <c r="G3">
-        <v>46.839177283073823</v>
+        <v>88.753795639002604</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -559,10 +559,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>12</v>
@@ -573,22 +573,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="4">
-        <v>29.368634652531568</v>
+        <v>110.1957566305345</v>
       </c>
       <c r="C4" s="4">
-        <v>7.6210876123450397</v>
+        <v>29.958670583770122</v>
       </c>
       <c r="D4" s="4">
-        <v>5.0313663917334779</v>
+        <v>18.567703617241921</v>
       </c>
       <c r="E4" s="4">
-        <v>4.3602907865147529</v>
+        <v>5.5077431768548104</v>
       </c>
       <c r="F4" s="4">
-        <v>2.2616371901186501</v>
+        <v>2.9868817867442421</v>
       </c>
       <c r="G4">
-        <v>48.643016633243477</v>
+        <v>167.21675579514559</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
@@ -610,23 +610,23 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
-        <v>14.40155916338046</v>
-      </c>
-      <c r="C5" s="3">
-        <v>20.746208722076979</v>
-      </c>
-      <c r="D5" s="3">
-        <v>16.278754092360561</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4.0411390442099773</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2.5829833107815832</v>
+      <c r="B5" s="4">
+        <v>5.0719227455215536</v>
+      </c>
+      <c r="C5" s="4">
+        <v>34.726263781755293</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.886479340309672</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2.3689288577387271</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3.0080536839447132</v>
       </c>
       <c r="G5">
-        <v>58.050644332809547</v>
+        <v>49.061648409269957</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -635,10 +635,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>12</v>
@@ -649,22 +649,22 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>55.007497905314658</v>
+        <v>10.26349536914562</v>
       </c>
       <c r="C6" s="4">
-        <v>11.450093186456851</v>
+        <v>8.1999987920678059</v>
       </c>
       <c r="D6" s="4">
-        <v>15.70373260426528</v>
+        <v>9.1810046468391509</v>
       </c>
       <c r="E6" s="4">
-        <v>3.8079602020675778</v>
+        <v>3.9429921229467291</v>
       </c>
       <c r="F6" s="4">
-        <v>2.7845117408982301</v>
+        <v>3.009494544218744</v>
       </c>
       <c r="G6">
-        <v>88.753795639002604</v>
+        <v>34.596985475218062</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -686,23 +686,23 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>24.685633929427642</v>
-      </c>
-      <c r="C7" s="3">
-        <v>7.5931393667692264</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2.792644114059911</v>
-      </c>
-      <c r="E7" s="3">
-        <v>7.6666029287902271</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2.979165538988457</v>
+      <c r="B7" s="4">
+        <v>18.030977822114149</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8.9531006483299365</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6.3220977110116294</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.654093527783838</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3.1549007479519831</v>
       </c>
       <c r="G7">
-        <v>45.717185878035458</v>
+        <v>40.115170457191539</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -711,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>17</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>12</v>
@@ -725,22 +725,22 @@
         <v>9</v>
       </c>
       <c r="B8" s="4">
-        <v>110.1957566305345</v>
+        <v>12.72526914383505</v>
       </c>
       <c r="C8" s="4">
-        <v>29.958670583770122</v>
+        <v>64.927224518994223</v>
       </c>
       <c r="D8" s="4">
-        <v>18.567703617241921</v>
+        <v>8.5305100643899365</v>
       </c>
       <c r="E8" s="4">
-        <v>5.5077431768548104</v>
+        <v>2.9855972111256039</v>
       </c>
       <c r="F8" s="4">
-        <v>2.9868817867442421</v>
+        <v>3.4114171867967209</v>
       </c>
       <c r="G8">
-        <v>167.21675579514559</v>
+        <v>92.580018125141535</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -763,22 +763,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>5.0719227455215536</v>
+        <v>27.433216222944569</v>
       </c>
       <c r="C9" s="4">
-        <v>34.726263781755293</v>
+        <v>19.17247394203768</v>
       </c>
       <c r="D9" s="4">
-        <v>3.886479340309672</v>
+        <v>69.677454498653347</v>
       </c>
       <c r="E9" s="4">
-        <v>2.3689288577387271</v>
+        <v>8.8441100378892585</v>
       </c>
       <c r="F9" s="4">
-        <v>3.0080536839447132</v>
+        <v>3.7802687421540289</v>
       </c>
       <c r="G9">
-        <v>49.061648409269957</v>
+        <v>128.90752344367891</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -801,22 +801,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>10.26349536914562</v>
+        <v>38.592871054438973</v>
       </c>
       <c r="C10" s="4">
-        <v>8.1999987920678059</v>
+        <v>13.360248720684851</v>
       </c>
       <c r="D10" s="4">
-        <v>9.1810046468391509</v>
+        <v>11.22740130274866</v>
       </c>
       <c r="E10" s="4">
-        <v>3.9429921229467291</v>
+        <v>4.3540833937777004</v>
       </c>
       <c r="F10" s="4">
-        <v>3.009494544218744</v>
+        <v>3.820490917173704</v>
       </c>
       <c r="G10">
-        <v>34.596985475218062</v>
+        <v>71.355095388823898</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -839,22 +839,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>18.030977822114149</v>
+        <v>54.366291484197617</v>
       </c>
       <c r="C11" s="4">
-        <v>8.9531006483299365</v>
+        <v>13.30878114670814</v>
       </c>
       <c r="D11" s="4">
-        <v>6.3220977110116294</v>
+        <v>30.425065986265569</v>
       </c>
       <c r="E11" s="4">
-        <v>3.654093527783838</v>
+        <v>6.6394508234951317</v>
       </c>
       <c r="F11" s="4">
-        <v>3.1549007479519831</v>
+        <v>4.2702502401095837</v>
       </c>
       <c r="G11">
-        <v>40.115170457191539</v>
+        <v>109.009839680776</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -876,23 +876,23 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
-        <v>7.4375264104219676</v>
-      </c>
-      <c r="C12" s="3">
-        <v>8.83302284535851</v>
-      </c>
-      <c r="D12" s="3">
-        <v>8.7033181351344382</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4.1618711968947926</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3.2776539016279558</v>
+      <c r="B12" s="4">
+        <v>7.2757120967090767</v>
+      </c>
+      <c r="C12" s="4">
+        <v>37.604367774395698</v>
+      </c>
+      <c r="D12" s="4">
+        <v>16.28200260706647</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.5777751726447748</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4.5736808548032357</v>
       </c>
       <c r="G12">
-        <v>32.413392489437669</v>
+        <v>69.313538505619277</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
       </c>
       <c r="L12" t="s">
         <v>12</v>
@@ -918,22 +918,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="4">
-        <v>12.72526914383505</v>
+        <v>54.466595801652304</v>
       </c>
       <c r="C13" s="4">
-        <v>64.927224518994223</v>
+        <v>12.76655718115653</v>
       </c>
       <c r="D13" s="4">
-        <v>8.5305100643899365</v>
+        <v>14.81626258047393</v>
       </c>
       <c r="E13" s="4">
-        <v>2.9855972111256039</v>
+        <v>10.131513910927939</v>
       </c>
       <c r="F13" s="4">
-        <v>3.4114171867967209</v>
+        <v>5.2962527018992347</v>
       </c>
       <c r="G13">
-        <v>92.580018125141535</v>
+        <v>97.477182176109935</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -955,23 +955,23 @@
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3">
-        <v>15.51715359627311</v>
-      </c>
-      <c r="C14" s="3">
-        <v>7.090294875343865</v>
-      </c>
-      <c r="D14" s="3">
-        <v>17.542167375562119</v>
-      </c>
-      <c r="E14" s="3">
-        <v>6.5776356228729913</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3.74175953522631</v>
+      <c r="B14" s="4">
+        <v>30.962742378488219</v>
+      </c>
+      <c r="C14" s="4">
+        <v>33.199368791346522</v>
+      </c>
+      <c r="D14" s="4">
+        <v>39.893633637426191</v>
+      </c>
+      <c r="E14" s="4">
+        <v>6.9356979573597251</v>
+      </c>
+      <c r="F14" s="4">
+        <v>5.6085382249672016</v>
       </c>
       <c r="G14">
-        <v>50.469011005278396</v>
+        <v>116.59998098958781</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
       </c>
       <c r="L14" t="s">
         <v>12</v>
@@ -994,22 +994,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="4">
-        <v>27.433216222944569</v>
+        <v>8.6520952918736356</v>
       </c>
       <c r="C15" s="4">
-        <v>19.17247394203768</v>
+        <v>67.675135708201623</v>
       </c>
       <c r="D15" s="4">
-        <v>69.677454498653347</v>
+        <v>21.25605954467196</v>
       </c>
       <c r="E15" s="4">
-        <v>8.8441100378892585</v>
+        <v>5.6162048987557833</v>
       </c>
       <c r="F15" s="4">
-        <v>3.7802687421540289</v>
+        <v>5.9309995589954703</v>
       </c>
       <c r="G15">
-        <v>128.90752344367891</v>
+        <v>109.13049500249851</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>9</v>
       </c>
       <c r="B16" s="4">
-        <v>38.592871054438973</v>
+        <v>26.497931476400009</v>
       </c>
       <c r="C16" s="4">
-        <v>13.360248720684851</v>
+        <v>99.220670756749342</v>
       </c>
       <c r="D16" s="4">
-        <v>11.22740130274866</v>
+        <v>21.264731760708781</v>
       </c>
       <c r="E16" s="4">
-        <v>4.3540833937777004</v>
+        <v>4.1441380701414534</v>
       </c>
       <c r="F16" s="4">
-        <v>3.820490917173704</v>
+        <v>6.2048852034291873</v>
       </c>
       <c r="G16">
-        <v>71.355095388823898</v>
+        <v>157.33235726742879</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -1069,23 +1069,23 @@
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="3">
-        <v>15.565160565350549</v>
-      </c>
-      <c r="C17" s="3">
-        <v>8.3245852575564037</v>
-      </c>
-      <c r="D17" s="3">
-        <v>8.7217637201035352</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5.9182706821284272</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4.0456980284571804</v>
+      <c r="B17" s="4">
+        <v>50.142459287101659</v>
+      </c>
+      <c r="C17" s="4">
+        <v>25.998977217182571</v>
+      </c>
+      <c r="D17" s="4">
+        <v>75.088391587956352</v>
+      </c>
+      <c r="E17" s="4">
+        <v>13.99278659947959</v>
+      </c>
+      <c r="F17" s="4">
+        <v>6.6682808286588848</v>
       </c>
       <c r="G17">
-        <v>42.575478253596103</v>
+        <v>171.8908955203791</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1094,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
       </c>
       <c r="L17" t="s">
         <v>12</v>
@@ -1107,23 +1107,23 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="3">
-        <v>42.828189383413083</v>
-      </c>
-      <c r="C18" s="3">
-        <v>6.8391669397433947</v>
-      </c>
-      <c r="D18" s="3">
-        <v>5.9583657263394354</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5.976364290412544</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4.192491557473879</v>
+      <c r="B18" s="4">
+        <v>11.212785309094309</v>
+      </c>
+      <c r="C18" s="4">
+        <v>68.167089350110317</v>
+      </c>
+      <c r="D18" s="4">
+        <v>9.1396893069580738</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3.6961423867469998</v>
+      </c>
+      <c r="F18" s="4">
+        <v>6.6897460720185089</v>
       </c>
       <c r="G18">
-        <v>65.794577897382325</v>
+        <v>98.905452424928185</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1132,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>24</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
       </c>
       <c r="L18" t="s">
         <v>12</v>
@@ -1146,22 +1146,22 @@
         <v>9</v>
       </c>
       <c r="B19" s="4">
-        <v>54.366291484197617</v>
+        <v>14.276412170780841</v>
       </c>
       <c r="C19" s="4">
-        <v>13.30878114670814</v>
+        <v>86.116213364345384</v>
       </c>
       <c r="D19" s="4">
-        <v>30.425065986265569</v>
+        <v>22.32756950495633</v>
       </c>
       <c r="E19" s="4">
-        <v>6.6394508234951317</v>
+        <v>4.9674673684294506</v>
       </c>
       <c r="F19" s="4">
-        <v>4.2702502401095837</v>
+        <v>7.1146552284721523</v>
       </c>
       <c r="G19">
-        <v>109.009839680776</v>
+        <v>134.80231763698421</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -1183,23 +1183,23 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="3">
-        <v>22.339217003193369</v>
-      </c>
-      <c r="C20" s="3">
-        <v>26.503565023239609</v>
-      </c>
-      <c r="D20" s="3">
-        <v>126.12661859856939</v>
-      </c>
-      <c r="E20" s="3">
-        <v>14.52095503330556</v>
-      </c>
-      <c r="F20" s="3">
-        <v>4.5303963184619436</v>
+      <c r="B20" s="4">
+        <v>100.078898119226</v>
+      </c>
+      <c r="C20" s="4">
+        <v>81.43805670964062</v>
+      </c>
+      <c r="D20" s="4">
+        <v>10.72367571731789</v>
+      </c>
+      <c r="E20" s="4">
+        <v>7.2775084990663768</v>
+      </c>
+      <c r="F20" s="4">
+        <v>7.351745465581784</v>
       </c>
       <c r="G20">
-        <v>194.0207519767699</v>
+        <v>206.86988451083269</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1208,10 +1208,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>23</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>12</v>
@@ -1222,22 +1222,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="4">
-        <v>7.2757120967090767</v>
+        <v>37.756049664872748</v>
       </c>
       <c r="C21" s="4">
-        <v>37.604367774395698</v>
+        <v>23.84939058914512</v>
       </c>
       <c r="D21" s="4">
-        <v>16.28200260706647</v>
+        <v>59.061951074146883</v>
       </c>
       <c r="E21" s="4">
-        <v>3.5777751726447748</v>
+        <v>8.6659769680535614</v>
       </c>
       <c r="F21" s="4">
-        <v>4.5736808548032357</v>
+        <v>8.6879180766453601</v>
       </c>
       <c r="G21">
-        <v>69.313538505619277</v>
+        <v>138.0212863728637</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -1259,23 +1259,23 @@
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="3">
-        <v>9.8773307256845442</v>
-      </c>
-      <c r="C22" s="3">
-        <v>4.9101774058558263</v>
-      </c>
-      <c r="D22" s="3">
-        <v>18.109678920355289</v>
-      </c>
-      <c r="E22" s="3">
-        <v>12.443896317768409</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4.7344296122511613</v>
+      <c r="B22" s="4">
+        <v>7.6097159818681419</v>
+      </c>
+      <c r="C22" s="4">
+        <v>89.319375014866324</v>
+      </c>
+      <c r="D22" s="4">
+        <v>27.496726750676078</v>
+      </c>
+      <c r="E22" s="4">
+        <v>7.6957513699736007</v>
+      </c>
+      <c r="F22" s="4">
+        <v>11.86502253587566</v>
       </c>
       <c r="G22">
-        <v>50.075512981915217</v>
+        <v>143.98659165325981</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1284,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>19</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
       </c>
       <c r="L22" t="s">
         <v>12</v>
@@ -1297,23 +1297,23 @@
       <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="3">
-        <v>30.114974835380231</v>
-      </c>
-      <c r="C23" s="3">
-        <v>72.831221705717397</v>
-      </c>
-      <c r="D23" s="3">
-        <v>30.510531420629789</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5.511598592187509</v>
-      </c>
-      <c r="F23" s="3">
-        <v>4.7358522556709826</v>
+      <c r="B23" s="4">
+        <v>647.50044938270469</v>
+      </c>
+      <c r="C23" s="4">
+        <v>97.430310618645535</v>
+      </c>
+      <c r="D23" s="4">
+        <v>50.192507118899357</v>
+      </c>
+      <c r="E23" s="4">
+        <v>24.514869046440751</v>
+      </c>
+      <c r="F23" s="4">
+        <v>14.96035063843501</v>
       </c>
       <c r="G23">
-        <v>143.7041788095859</v>
+        <v>834.59848680512562</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1322,10 +1322,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>22</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
       </c>
       <c r="L23" t="s">
         <v>12</v>
@@ -1335,23 +1335,23 @@
       <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="4">
-        <v>54.466595801652304</v>
-      </c>
-      <c r="C24" s="4">
-        <v>12.76655718115653</v>
-      </c>
-      <c r="D24" s="4">
-        <v>14.81626258047393</v>
-      </c>
-      <c r="E24" s="4">
-        <v>10.131513910927939</v>
-      </c>
-      <c r="F24" s="4">
-        <v>5.2962527018992347</v>
+      <c r="B24" s="3">
+        <v>16.744632358103772</v>
+      </c>
+      <c r="C24" s="3">
+        <v>19.910798133155549</v>
+      </c>
+      <c r="D24" s="3">
+        <v>15.69046328879681</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4.0957034949357389</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.6626265009471111</v>
       </c>
       <c r="G24">
-        <v>97.477182176109935</v>
+        <v>58.104223775938983</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1360,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
       </c>
       <c r="L24" t="s">
         <v>12</v>
@@ -1374,22 +1374,22 @@
         <v>9</v>
       </c>
       <c r="B25" s="3">
-        <v>22.929922573484092</v>
+        <v>18.50064565181119</v>
       </c>
       <c r="C25" s="3">
-        <v>33.990176425342199</v>
+        <v>6.5911690359939321</v>
       </c>
       <c r="D25" s="3">
-        <v>115.3669789310367</v>
+        <v>14.41053822501169</v>
       </c>
       <c r="E25" s="3">
-        <v>13.03752596194489</v>
+        <v>5.2431700541467414</v>
       </c>
       <c r="F25" s="3">
-        <v>5.3400825035871069</v>
+        <v>2.093654316110269</v>
       </c>
       <c r="G25">
-        <v>190.66468639539491</v>
+        <v>46.839177283073823</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K25" s="3">
         <v>1</v>
@@ -1412,22 +1412,22 @@
         <v>9</v>
       </c>
       <c r="B26" s="3">
-        <v>16.578096574735302</v>
+        <v>14.40155916338046</v>
       </c>
       <c r="C26" s="3">
-        <v>7.775813079002889</v>
+        <v>20.746208722076979</v>
       </c>
       <c r="D26" s="3">
-        <v>25.539991459771318</v>
+        <v>16.278754092360561</v>
       </c>
       <c r="E26" s="3">
-        <v>11.40953448778923</v>
+        <v>4.0411390442099773</v>
       </c>
       <c r="F26" s="3">
-        <v>5.4295698144921047</v>
+        <v>2.5829833107815832</v>
       </c>
       <c r="G26">
-        <v>66.733005415790842</v>
+        <v>58.050644332809547</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K26" s="3">
         <v>1</v>
@@ -1450,22 +1450,22 @@
         <v>9</v>
       </c>
       <c r="B27" s="3">
-        <v>379.31830604333879</v>
+        <v>24.685633929427642</v>
       </c>
       <c r="C27" s="3">
-        <v>94.716930743995889</v>
+        <v>7.5931393667692264</v>
       </c>
       <c r="D27" s="3">
-        <v>29.09928765752057</v>
+        <v>2.792644114059911</v>
       </c>
       <c r="E27" s="3">
-        <v>12.499553420782179</v>
+        <v>7.6666029287902271</v>
       </c>
       <c r="F27" s="3">
-        <v>5.5082767059114968</v>
+        <v>2.979165538988457</v>
       </c>
       <c r="G27">
-        <v>521.14235457154882</v>
+        <v>45.717185878035458</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K27" s="3">
         <v>1</v>
@@ -1487,23 +1487,23 @@
       <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="4">
-        <v>30.962742378488219</v>
-      </c>
-      <c r="C28" s="4">
-        <v>33.199368791346522</v>
-      </c>
-      <c r="D28" s="4">
-        <v>39.893633637426191</v>
-      </c>
-      <c r="E28" s="4">
-        <v>6.9356979573597251</v>
-      </c>
-      <c r="F28" s="4">
-        <v>5.6085382249672016</v>
+      <c r="B28" s="3">
+        <v>7.4375264104219676</v>
+      </c>
+      <c r="C28" s="3">
+        <v>8.83302284535851</v>
+      </c>
+      <c r="D28" s="3">
+        <v>8.7033181351344382</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4.1618711968947926</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3.2776539016279558</v>
       </c>
       <c r="G28">
-        <v>116.59998098958781</v>
+        <v>32.413392489437669</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1512,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>20</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
       </c>
       <c r="L28" t="s">
         <v>12</v>
@@ -1525,23 +1525,23 @@
       <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="4">
-        <v>8.6520952918736356</v>
-      </c>
-      <c r="C29" s="4">
-        <v>67.675135708201623</v>
-      </c>
-      <c r="D29" s="4">
-        <v>21.25605954467196</v>
-      </c>
-      <c r="E29" s="4">
-        <v>5.6162048987557833</v>
-      </c>
-      <c r="F29" s="4">
-        <v>5.9309995589954703</v>
+      <c r="B29" s="3">
+        <v>15.51715359627311</v>
+      </c>
+      <c r="C29" s="3">
+        <v>7.090294875343865</v>
+      </c>
+      <c r="D29" s="3">
+        <v>17.542167375562119</v>
+      </c>
+      <c r="E29" s="3">
+        <v>6.5776356228729913</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3.74175953522631</v>
       </c>
       <c r="G29">
-        <v>109.13049500249851</v>
+        <v>50.469011005278396</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1550,10 +1550,10 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>13</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>12</v>
@@ -1564,22 +1564,22 @@
         <v>9</v>
       </c>
       <c r="B30" s="3">
-        <v>16.125143865411118</v>
+        <v>15.565160565350549</v>
       </c>
       <c r="C30" s="3">
-        <v>10.299308789686039</v>
+        <v>8.3245852575564037</v>
       </c>
       <c r="D30" s="3">
-        <v>22.416559138435691</v>
+        <v>8.7217637201035352</v>
       </c>
       <c r="E30" s="3">
-        <v>7.0220584104885164</v>
+        <v>5.9182706821284272</v>
       </c>
       <c r="F30" s="3">
-        <v>6.1305474974377114</v>
+        <v>4.0456980284571804</v>
       </c>
       <c r="G30">
-        <v>61.993617701459087</v>
+        <v>42.575478253596103</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K30" s="3">
         <v>1</v>
@@ -1601,23 +1601,23 @@
       <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="4">
-        <v>26.497931476400009</v>
-      </c>
-      <c r="C31" s="4">
-        <v>99.220670756749342</v>
-      </c>
-      <c r="D31" s="4">
-        <v>21.264731760708781</v>
-      </c>
-      <c r="E31" s="4">
-        <v>4.1441380701414534</v>
-      </c>
-      <c r="F31" s="4">
-        <v>6.2048852034291873</v>
+      <c r="B31" s="3">
+        <v>42.828189383413083</v>
+      </c>
+      <c r="C31" s="3">
+        <v>6.8391669397433947</v>
+      </c>
+      <c r="D31" s="3">
+        <v>5.9583657263394354</v>
+      </c>
+      <c r="E31" s="3">
+        <v>5.976364290412544</v>
+      </c>
+      <c r="F31" s="3">
+        <v>4.192491557473879</v>
       </c>
       <c r="G31">
-        <v>157.33235726742879</v>
+        <v>65.794577897382325</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1626,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>19</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
       </c>
       <c r="L31" t="s">
         <v>12</v>
@@ -1639,23 +1639,23 @@
       <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="4">
-        <v>50.142459287101659</v>
-      </c>
-      <c r="C32" s="4">
-        <v>25.998977217182571</v>
-      </c>
-      <c r="D32" s="4">
-        <v>75.088391587956352</v>
-      </c>
-      <c r="E32" s="4">
-        <v>13.99278659947959</v>
-      </c>
-      <c r="F32" s="4">
-        <v>6.6682808286588848</v>
+      <c r="B32" s="3">
+        <v>22.339217003193369</v>
+      </c>
+      <c r="C32" s="3">
+        <v>26.503565023239609</v>
+      </c>
+      <c r="D32" s="3">
+        <v>126.12661859856939</v>
+      </c>
+      <c r="E32" s="3">
+        <v>14.52095503330556</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4.5303963184619436</v>
       </c>
       <c r="G32">
-        <v>171.8908955203791</v>
+        <v>194.0207519767699</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1664,10 +1664,10 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>11</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
       </c>
       <c r="L32" t="s">
         <v>12</v>
@@ -1677,23 +1677,23 @@
       <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="4">
-        <v>11.212785309094309</v>
-      </c>
-      <c r="C33" s="4">
-        <v>68.167089350110317</v>
-      </c>
-      <c r="D33" s="4">
-        <v>9.1396893069580738</v>
-      </c>
-      <c r="E33" s="4">
-        <v>3.6961423867469998</v>
-      </c>
-      <c r="F33" s="4">
-        <v>6.6897460720185089</v>
+      <c r="B33" s="3">
+        <v>9.8773307256845442</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4.9101774058558263</v>
+      </c>
+      <c r="D33" s="3">
+        <v>18.109678920355289</v>
+      </c>
+      <c r="E33" s="3">
+        <v>12.443896317768409</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4.7344296122511613</v>
       </c>
       <c r="G33">
-        <v>98.905452424928185</v>
+        <v>50.075512981915217</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1702,10 +1702,10 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>23</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
       </c>
       <c r="L33" t="s">
         <v>12</v>
@@ -1716,22 +1716,22 @@
         <v>9</v>
       </c>
       <c r="B34" s="3">
-        <v>160.3111681018483</v>
+        <v>30.114974835380231</v>
       </c>
       <c r="C34" s="3">
-        <v>40.221479793338567</v>
+        <v>72.831221705717397</v>
       </c>
       <c r="D34" s="3">
-        <v>15.475350650903151</v>
+        <v>30.510531420629789</v>
       </c>
       <c r="E34" s="3">
-        <v>10.51544200225611</v>
+        <v>5.511598592187509</v>
       </c>
       <c r="F34" s="3">
-        <v>7.0507402043503644</v>
+        <v>4.7358522556709826</v>
       </c>
       <c r="G34">
-        <v>233.57418075269649</v>
+        <v>143.7041788095859</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K34" s="3">
         <v>1</v>
@@ -1753,23 +1753,23 @@
       <c r="A35" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="4">
-        <v>14.276412170780841</v>
-      </c>
-      <c r="C35" s="4">
-        <v>86.116213364345384</v>
-      </c>
-      <c r="D35" s="4">
-        <v>22.32756950495633</v>
-      </c>
-      <c r="E35" s="4">
-        <v>4.9674673684294506</v>
-      </c>
-      <c r="F35" s="4">
-        <v>7.1146552284721523</v>
+      <c r="B35" s="3">
+        <v>22.929922573484092</v>
+      </c>
+      <c r="C35" s="3">
+        <v>33.990176425342199</v>
+      </c>
+      <c r="D35" s="3">
+        <v>115.3669789310367</v>
+      </c>
+      <c r="E35" s="3">
+        <v>13.03752596194489</v>
+      </c>
+      <c r="F35" s="3">
+        <v>5.3400825035871069</v>
       </c>
       <c r="G35">
-        <v>134.80231763698421</v>
+        <v>190.66468639539491</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1778,10 +1778,10 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>24</v>
-      </c>
-      <c r="K35" s="4">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1</v>
       </c>
       <c r="L35" t="s">
         <v>12</v>
@@ -1791,23 +1791,23 @@
       <c r="A36" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="4">
-        <v>100.078898119226</v>
-      </c>
-      <c r="C36" s="4">
-        <v>81.43805670964062</v>
-      </c>
-      <c r="D36" s="4">
-        <v>10.72367571731789</v>
-      </c>
-      <c r="E36" s="4">
-        <v>7.2775084990663768</v>
-      </c>
-      <c r="F36" s="4">
-        <v>7.351745465581784</v>
+      <c r="B36" s="3">
+        <v>16.578096574735302</v>
+      </c>
+      <c r="C36" s="3">
+        <v>7.775813079002889</v>
+      </c>
+      <c r="D36" s="3">
+        <v>25.539991459771318</v>
+      </c>
+      <c r="E36" s="3">
+        <v>11.40953448778923</v>
+      </c>
+      <c r="F36" s="3">
+        <v>5.4295698144921047</v>
       </c>
       <c r="G36">
-        <v>206.86988451083269</v>
+        <v>66.733005415790842</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>9</v>
-      </c>
-      <c r="K36" s="4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
       </c>
       <c r="L36" t="s">
         <v>12</v>
@@ -1830,22 +1830,22 @@
         <v>9</v>
       </c>
       <c r="B37" s="3">
-        <v>26.01125013346434</v>
+        <v>379.31830604333879</v>
       </c>
       <c r="C37" s="3">
-        <v>13.47070025014516</v>
+        <v>94.716930743995889</v>
       </c>
       <c r="D37" s="3">
-        <v>10.286459493182811</v>
+        <v>29.09928765752057</v>
       </c>
       <c r="E37" s="3">
-        <v>9.7305414851030498</v>
+        <v>12.499553420782179</v>
       </c>
       <c r="F37" s="3">
-        <v>7.6334396803057674</v>
+        <v>5.5082767059114968</v>
       </c>
       <c r="G37">
-        <v>67.132391042201135</v>
+        <v>521.14235457154882</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="K37" s="3">
         <v>1</v>
@@ -1868,22 +1868,22 @@
         <v>9</v>
       </c>
       <c r="B38" s="3">
-        <v>11.37427297844795</v>
+        <v>16.125143865411118</v>
       </c>
       <c r="C38" s="3">
-        <v>18.373667515920861</v>
+        <v>10.299308789686039</v>
       </c>
       <c r="D38" s="3">
-        <v>56.82296235804202</v>
+        <v>22.416559138435691</v>
       </c>
       <c r="E38" s="3">
-        <v>21.98864248854181</v>
+        <v>7.0220584104885164</v>
       </c>
       <c r="F38" s="3">
-        <v>8.5099962293678928</v>
+        <v>6.1305474974377114</v>
       </c>
       <c r="G38">
-        <v>117.0695415703206</v>
+        <v>61.993617701459087</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K38" s="3">
         <v>1</v>
@@ -1905,23 +1905,23 @@
       <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="4">
-        <v>37.756049664872748</v>
-      </c>
-      <c r="C39" s="4">
-        <v>23.84939058914512</v>
-      </c>
-      <c r="D39" s="4">
-        <v>59.061951074146883</v>
-      </c>
-      <c r="E39" s="4">
-        <v>8.6659769680535614</v>
-      </c>
-      <c r="F39" s="4">
-        <v>8.6879180766453601</v>
+      <c r="B39" s="3">
+        <v>160.3111681018483</v>
+      </c>
+      <c r="C39" s="3">
+        <v>40.221479793338567</v>
+      </c>
+      <c r="D39" s="3">
+        <v>15.475350650903151</v>
+      </c>
+      <c r="E39" s="3">
+        <v>10.51544200225611</v>
+      </c>
+      <c r="F39" s="3">
+        <v>7.0507402043503644</v>
       </c>
       <c r="G39">
-        <v>138.0212863728637</v>
+        <v>233.57418075269649</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1930,10 +1930,10 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>2</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1</v>
       </c>
       <c r="L39" t="s">
         <v>12</v>
@@ -1944,22 +1944,22 @@
         <v>9</v>
       </c>
       <c r="B40" s="3">
-        <v>17.048601172029251</v>
+        <v>26.01125013346434</v>
       </c>
       <c r="C40" s="3">
-        <v>10.703893968783021</v>
+        <v>13.47070025014516</v>
       </c>
       <c r="D40" s="3">
-        <v>11.610545242016119</v>
+        <v>10.286459493182811</v>
       </c>
       <c r="E40" s="3">
-        <v>14.653024372796599</v>
+        <v>9.7305414851030498</v>
       </c>
       <c r="F40" s="3">
-        <v>9.0161719677637358</v>
+        <v>7.6334396803057674</v>
       </c>
       <c r="G40">
-        <v>63.032236723388728</v>
+        <v>67.132391042201135</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" s="3">
         <v>1</v>
@@ -1982,22 +1982,22 @@
         <v>9</v>
       </c>
       <c r="B41" s="3">
-        <v>199.28735216640129</v>
+        <v>11.37427297844795</v>
       </c>
       <c r="C41" s="3">
-        <v>16.759408994111769</v>
+        <v>18.373667515920861</v>
       </c>
       <c r="D41" s="3">
-        <v>54.08508632747499</v>
+        <v>56.82296235804202</v>
       </c>
       <c r="E41" s="3">
-        <v>17.074520067705301</v>
+        <v>21.98864248854181</v>
       </c>
       <c r="F41" s="3">
-        <v>11.09694880804142</v>
+        <v>8.5099962293678928</v>
       </c>
       <c r="G41">
-        <v>298.30331636373478</v>
+        <v>117.0695415703206</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K41" s="3">
         <v>1</v>
@@ -2019,23 +2019,23 @@
       <c r="A42" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="4">
-        <v>7.6097159818681419</v>
-      </c>
-      <c r="C42" s="4">
-        <v>89.319375014866324</v>
-      </c>
-      <c r="D42" s="4">
-        <v>27.496726750676078</v>
-      </c>
-      <c r="E42" s="4">
-        <v>7.6957513699736007</v>
-      </c>
-      <c r="F42" s="4">
-        <v>11.86502253587566</v>
+      <c r="B42" s="3">
+        <v>17.048601172029251</v>
+      </c>
+      <c r="C42" s="3">
+        <v>10.703893968783021</v>
+      </c>
+      <c r="D42" s="3">
+        <v>11.610545242016119</v>
+      </c>
+      <c r="E42" s="3">
+        <v>14.653024372796599</v>
+      </c>
+      <c r="F42" s="3">
+        <v>9.0161719677637358</v>
       </c>
       <c r="G42">
-        <v>143.98659165325981</v>
+        <v>63.032236723388728</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>6</v>
-      </c>
-      <c r="K42" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1</v>
       </c>
       <c r="L42" t="s">
         <v>12</v>
@@ -2058,22 +2058,22 @@
         <v>9</v>
       </c>
       <c r="B43" s="3">
-        <v>1622.1020009152639</v>
+        <v>199.28735216640129</v>
       </c>
       <c r="C43" s="3">
-        <v>279.63747453855751</v>
+        <v>16.759408994111769</v>
       </c>
       <c r="D43" s="3">
-        <v>42.647082250349733</v>
+        <v>54.08508632747499</v>
       </c>
       <c r="E43" s="3">
-        <v>22.16658659802717</v>
+        <v>17.074520067705301</v>
       </c>
       <c r="F43" s="3">
-        <v>12.27734233899753</v>
+        <v>11.09694880804142</v>
       </c>
       <c r="G43">
-        <v>1978.830486641197</v>
+        <v>298.30331636373478</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K43" s="3">
         <v>1</v>
@@ -2096,22 +2096,22 @@
         <v>9</v>
       </c>
       <c r="B44" s="3">
-        <v>16.575646157245849</v>
+        <v>1622.1020009152639</v>
       </c>
       <c r="C44" s="3">
-        <v>7.4365719239434611</v>
+        <v>279.63747453855751</v>
       </c>
       <c r="D44" s="3">
-        <v>7.6620965558018206</v>
+        <v>42.647082250349733</v>
       </c>
       <c r="E44" s="3">
-        <v>17.713700792795191</v>
+        <v>22.16658659802717</v>
       </c>
       <c r="F44" s="3">
-        <v>14.37956991973603</v>
+        <v>12.27734233899753</v>
       </c>
       <c r="G44">
-        <v>63.767585349522363</v>
+        <v>1978.830486641197</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K44" s="3">
         <v>1</v>
@@ -2133,23 +2133,23 @@
       <c r="A45" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="4">
-        <v>647.50044938270469</v>
-      </c>
-      <c r="C45" s="4">
-        <v>97.430310618645535</v>
-      </c>
-      <c r="D45" s="4">
-        <v>50.192507118899357</v>
-      </c>
-      <c r="E45" s="4">
-        <v>24.514869046440751</v>
-      </c>
-      <c r="F45" s="4">
-        <v>14.96035063843501</v>
+      <c r="B45" s="3">
+        <v>16.575646157245849</v>
+      </c>
+      <c r="C45" s="3">
+        <v>7.4365719239434611</v>
+      </c>
+      <c r="D45" s="3">
+        <v>7.6620965558018206</v>
+      </c>
+      <c r="E45" s="3">
+        <v>17.713700792795191</v>
+      </c>
+      <c r="F45" s="3">
+        <v>14.37956991973603</v>
       </c>
       <c r="G45">
-        <v>834.59848680512562</v>
+        <v>63.767585349522363</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2158,10 +2158,10 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>21</v>
-      </c>
-      <c r="K45" s="4">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1</v>
       </c>
       <c r="L45" t="s">
         <v>12</v>
@@ -2244,8 +2244,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K51">
-    <sortCondition ref="F2:F51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L47">
+    <sortCondition ref="K2:K47"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
